--- a/data/trans_bre/P32B-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P32B-Provincia-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.4055822153122983</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.7929949166967122</v>
+        <v>-0.7929949166967121</v>
       </c>
     </row>
     <row r="5">
@@ -660,23 +660,23 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.060851680528724</v>
+        <v>-2.629519449933274</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-14.29672970938926</v>
+        <v>-14.19860830173009</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.595173988673515</v>
+        <v>-8.727837027906384</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.959069749948574</v>
+        <v>-6.120344820629948</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.8457019452382607</v>
+        <v>-0.8501875624995203</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -688,23 +688,23 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.777075204926964</v>
+        <v>7.042072785978003</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.697668086172509</v>
+        <v>-3.76983555608402</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.474297192820408</v>
+        <v>2.813654493961154</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2457194997666643</v>
+        <v>0.2677100874341192</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>-0.2274833296678339</v>
+        <v>-0.3149038122325096</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7761848720432039</v>
+        <v>0.8058406075267691</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -750,14 +750,14 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-4.012658965643821</v>
+        <v>-3.876964521673031</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-5.997699424060486</v>
+        <v>-5.967980502107881</v>
       </c>
       <c r="E8" s="5" t="inlineStr"/>
       <c r="F8" s="5" t="n">
-        <v>-5.854968746266795</v>
+        <v>-6.720529242693213</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
@@ -772,10 +772,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.4433705884761977</v>
+        <v>-0.4377232958447855</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-1.344668680886059</v>
+        <v>-1.245258729245161</v>
       </c>
       <c r="E9" s="5" t="inlineStr"/>
       <c r="F9" s="5" t="n">
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.148197031527939</v>
+        <v>-1.966245531476881</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.328933424168637</v>
+        <v>-7.524150010238909</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>-0.9319890737930002</v>
+        <v>-0.9254407521963852</v>
       </c>
     </row>
     <row r="12">
@@ -855,19 +855,19 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>3.890558783145547</v>
+        <v>4.211476454739124</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1442144012599918</v>
+        <v>0.101954022747223</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>0.291618461035931</v>
+        <v>0.3757411027774568</v>
       </c>
     </row>
     <row r="13">
@@ -891,7 +891,7 @@
         <v>-0.9568214647507814</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-0.068124079725686</v>
+        <v>-0.06812407972568582</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.3901493883448225</v>
@@ -903,7 +903,7 @@
         <v>-1</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.08783150719498149</v>
+        <v>-0.08783150719498128</v>
       </c>
     </row>
     <row r="14">
@@ -914,16 +914,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.627256685032161</v>
+        <v>-2.735582420290159</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.394343626077512</v>
+        <v>-2.467217510829093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-3.060488730653234</v>
+        <v>-3.465534110421515</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.646967225583229</v>
+        <v>-1.730306165997195</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="inlineStr"/>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.449087056681003</v>
+        <v>1.911583317165037</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.303281129920915</v>
+        <v>1.365693519803203</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="inlineStr"/>
@@ -975,7 +975,7 @@
         <v>-3.992384311676699</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.32873656001445</v>
+        <v>4.328736560014451</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-1</v>
@@ -1000,13 +1000,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.051395660132449</v>
+        <v>-5.071339328589019</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-8.823979223592609</v>
+        <v>-8.792329057384741</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-8.998796105681548</v>
+        <v>-9.962546076228703</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
@@ -1027,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.488528761532461</v>
+        <v>-1.523119695967385</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.0345133355442</v>
+        <v>-1.061899024166379</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22.65955634043678</v>
+        <v>20.21144240837146</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="inlineStr"/>
@@ -1084,16 +1084,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-1.822464938734714</v>
+        <v>-1.828103996769489</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-3.752828337104446</v>
+        <v>-2.925870298075249</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.652654678802803</v>
+        <v>-3.682502793537203</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-2.526628180072072</v>
+        <v>-2.574762252559998</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
@@ -1110,22 +1110,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.384783899560198</v>
+        <v>5.365085211358616</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.482224943295311</v>
+        <v>1.545851105671748</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.17138551008282</v>
+        <v>3.678722937159459</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
       <c r="I21" s="6" t="inlineStr"/>
       <c r="J21" s="6" t="n">
-        <v>6.126275750705259</v>
+        <v>5.162797322624268</v>
       </c>
     </row>
     <row r="22">
@@ -1149,7 +1149,7 @@
         <v>-0.9209750302679731</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.8556931106293526</v>
+        <v>0.8556931106293519</v>
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
@@ -1159,7 +1159,7 @@
         <v>-0.2767912284525357</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.2598964841870485</v>
+        <v>0.2598964841870482</v>
       </c>
     </row>
     <row r="23">
@@ -1171,23 +1171,23 @@
       </c>
       <c r="C23" s="5" t="inlineStr"/>
       <c r="D23" s="5" t="n">
-        <v>-4.806238735231217</v>
+        <v>-4.761694347407348</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.602821598483255</v>
+        <v>-3.633235962205793</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.549656231955562</v>
+        <v>-2.301432051297581</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>-0.8893682194121203</v>
+        <v>-0.9115228898664708</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.7812459459282118</v>
+        <v>-0.7999565740096672</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.6502384939749773</v>
+        <v>-0.5964587239468241</v>
       </c>
     </row>
     <row r="24">
@@ -1199,23 +1199,23 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.865921225237245</v>
+        <v>0.6812288087756245</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.678316788571052</v>
+        <v>1.596595103392379</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.492947875476093</v>
+        <v>5.569045379090847</v>
       </c>
       <c r="G24" s="6" t="inlineStr"/>
       <c r="H24" s="6" t="n">
-        <v>0.7947520296548829</v>
+        <v>0.5992836732192282</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.930691431518457</v>
+        <v>0.9318258576930094</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>2.798128271832665</v>
+        <v>2.904834569691943</v>
       </c>
     </row>
     <row r="25">
@@ -1239,7 +1239,7 @@
         <v>-1.229410361058462</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.4605527397967454</v>
+        <v>0.4605527397967452</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>2.679840909731986</v>
@@ -1251,7 +1251,7 @@
         <v>-1</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.5081498444811235</v>
+        <v>0.5081498444811233</v>
       </c>
     </row>
     <row r="26">
@@ -1262,16 +1262,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.2520841435087215</v>
+        <v>-0.1315063610560969</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-3.120715742197152</v>
+        <v>-3.113081035742608</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-2.943283044576315</v>
+        <v>-2.740025878074546</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.091257938140993</v>
+        <v>-1.184490891277857</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
@@ -1288,20 +1288,20 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>2.951829990239764</v>
+        <v>2.907701734436019</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.07389736439212265</v>
+        <v>0.09094188411896263</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-0.4230959445108683</v>
+        <v>-0.4242582242549928</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.52201916547926</v>
+        <v>3.205365166933399</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>0.8905760947379666</v>
+        <v>1.035208223370288</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="inlineStr"/>
@@ -1350,28 +1350,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4408889955133993</v>
+        <v>-0.4251159106598031</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.052245436904808</v>
+        <v>-3.02257456110538</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.966588723295907</v>
+        <v>-1.986844063752831</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.405871426011365</v>
+        <v>-1.436556675621202</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.4764050537741991</v>
+        <v>-0.4238749063691587</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.9057334476729187</v>
+        <v>-0.9014144710386189</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.7707912526340934</v>
+        <v>-0.7629577298509007</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.5526288004745511</v>
+        <v>-0.5544285743635862</v>
       </c>
     </row>
     <row r="30">
@@ -1382,28 +1382,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.190403419136332</v>
+        <v>1.193845595542055</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-1.336625842415002</v>
+        <v>-1.163540725570601</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.1792513424041016</v>
+        <v>-0.1057204369647571</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.090359729222816</v>
+        <v>1.058700648481758</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>2.156955667622913</v>
+        <v>2.22435459876891</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.5085287462481503</v>
+        <v>-0.4635714806896734</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.06839250539444715</v>
+        <v>-0.03340353801609922</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.6190238021089078</v>
+        <v>0.697382556618367</v>
       </c>
     </row>
     <row r="31">
